--- a/Circular/Standard_Deviation and Max.xlsx
+++ b/Circular/Standard_Deviation and Max.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00415668361194129</v>
+        <v>0.004156683611941256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003026023945209621</v>
+        <v>0.003026023945209601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002366190155367767</v>
+        <v>0.002366190155367758</v>
       </c>
     </row>
     <row r="4">
@@ -461,13 +461,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01687105553688573</v>
+        <v>0.0168710555368855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01240980411715364</v>
+        <v>0.01240980411715342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01259769366258645</v>
+        <v>0.01259769366258634</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.00570089522340696</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.004273305666607591</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.003546191850153032</v>
       </c>
     </row>
   </sheetData>
